--- a/static/assets/uploads/PCOS_Template_Negative.xlsx
+++ b/static/assets/uploads/PCOS_Template_Negative.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisJ\Desktop\PCOS-Diagnosing-SVM-DT\static\assets\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB755480-487E-4661-9561-B706C670B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -187,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -244,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,19 +270,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,68 +583,68 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" style="3" customWidth="1"/>
     <col min="16" max="16" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.33203125" style="3" customWidth="1"/>
-    <col min="44" max="16384" width="9.109375" style="3"/>
+    <col min="42" max="42" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" style="3" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,138 +772,136 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:42" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>19</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>31</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>52.4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>159</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>37</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>33</v>
       </c>
-      <c r="G2" s="5">
-        <f>(F2/E2)</f>
-        <v>0.89189189189189189</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
+      <c r="G2" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
         <v>20.7</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>17</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>72</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>18</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>12.7</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>2</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>5</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="2">
         <v>7</v>
       </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
         <v>1.99</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="2">
         <v>1.99</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="2">
         <v>6.05</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="2">
         <v>1.05</v>
       </c>
-      <c r="AC2" s="5">
-        <f>(AA2/AB2)</f>
-        <v>5.7619047619047619</v>
-      </c>
-      <c r="AD2" s="4">
+      <c r="AC2" s="4">
+        <v>5.76</v>
+      </c>
+      <c r="AD2" s="2">
         <v>3.19</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="2">
         <v>1</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="2">
         <v>12.05</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="2">
         <v>23.3</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="2">
         <v>0.25</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="2">
         <v>127</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="2">
         <v>120</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="2">
         <v>80</v>
       </c>
-      <c r="AL2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="4">
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2">
         <v>2</v>
       </c>
-      <c r="AN2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="4">
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
         <v>17</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="2">
         <v>5.6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A7:AP7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AP7">
     <sortCondition ref="A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
